--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1873459.307872789</v>
+        <v>-1876046.819078365</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>371.8342817437091</v>
       </c>
       <c r="G2" t="n">
-        <v>411.0904450475561</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>296.3356618821741</v>
@@ -710,13 +710,13 @@
         <v>113.0324549812898</v>
       </c>
       <c r="T2" t="n">
-        <v>204.6565392873045</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>59.69735180075263</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1014899708501</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.4278941339733</v>
       </c>
       <c r="I4" t="n">
         <v>98.62837588899006</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>92.33507763978301</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>191.0879511638283</v>
@@ -871,19 +871,19 @@
         <v>219.8723165903172</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2159662989849</v>
+        <v>216.7042346071741</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>132.6679642283471</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,13 +902,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>35.91752934229471</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>141.7391374254005</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.1023724523851</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>113.7744020113174</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>94.8127598026153</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>184.4241132557152</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>54.12472935313006</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>82.44197461223459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695557</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>36.0050276085205</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1576,13 +1576,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>174.7683347992599</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583756</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>105.9742079424032</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428175</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673021</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.13054509253726</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>140.5758943588655</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>58.24570521548642</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>139.1630968205463</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,13 +2530,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176126</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545287</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3196,16 +3196,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308911</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1622.310795753656</v>
+        <v>1171.672200758142</v>
       </c>
       <c r="C2" t="n">
-        <v>1622.310795753656</v>
+        <v>1171.672200758142</v>
       </c>
       <c r="D2" t="n">
-        <v>1622.310795753656</v>
+        <v>1171.672200758142</v>
       </c>
       <c r="E2" t="n">
-        <v>1236.522543155412</v>
+        <v>785.8839481598984</v>
       </c>
       <c r="F2" t="n">
-        <v>825.5366383658045</v>
+        <v>410.2937645803942</v>
       </c>
       <c r="G2" t="n">
         <v>410.2937645803942</v>
@@ -4337,7 +4337,7 @@
         <v>974.3476699529733</v>
       </c>
       <c r="M2" t="n">
-        <v>1478.55018180827</v>
+        <v>1478.550181808269</v>
       </c>
       <c r="N2" t="n">
         <v>1995.525025811714</v>
@@ -4358,22 +4358,22 @@
         <v>3005.708673672841</v>
       </c>
       <c r="T2" t="n">
-        <v>2798.984896614958</v>
+        <v>3005.708673672841</v>
       </c>
       <c r="U2" t="n">
-        <v>2738.684541260662</v>
+        <v>3005.708673672841</v>
       </c>
       <c r="V2" t="n">
-        <v>2738.684541260662</v>
+        <v>2674.64578632927</v>
       </c>
       <c r="W2" t="n">
-        <v>2385.915885990547</v>
+        <v>2321.877131059156</v>
       </c>
       <c r="X2" t="n">
-        <v>2012.450127729468</v>
+        <v>1948.411372798076</v>
       </c>
       <c r="Y2" t="n">
-        <v>1622.310795753656</v>
+        <v>1558.272040822264</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4410,19 @@
         <v>710.7690176891845</v>
       </c>
       <c r="K3" t="n">
-        <v>934.6019044271179</v>
+        <v>1068.312822670917</v>
       </c>
       <c r="L3" t="n">
-        <v>1281.895384495312</v>
+        <v>1415.606302739111</v>
       </c>
       <c r="M3" t="n">
-        <v>1706.527363131968</v>
+        <v>1840.238281375767</v>
       </c>
       <c r="N3" t="n">
-        <v>2156.806731626996</v>
+        <v>2290.517649870795</v>
       </c>
       <c r="O3" t="n">
-        <v>2546.504589386192</v>
+        <v>2680.215507629991</v>
       </c>
       <c r="P3" t="n">
         <v>2973.649328608492</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>481.0751018628064</v>
+        <v>476.6984250829914</v>
       </c>
       <c r="C4" t="n">
-        <v>312.1389189348995</v>
+        <v>476.6984250829914</v>
       </c>
       <c r="D4" t="n">
-        <v>162.0222795225638</v>
+        <v>476.6984250829914</v>
       </c>
       <c r="E4" t="n">
-        <v>162.0222795225638</v>
+        <v>476.6984250829914</v>
       </c>
       <c r="F4" t="n">
-        <v>162.0222795225638</v>
+        <v>476.6984250829914</v>
       </c>
       <c r="G4" t="n">
-        <v>162.0222795225638</v>
+        <v>308.9191422841529</v>
       </c>
       <c r="H4" t="n">
-        <v>162.0222795225638</v>
+        <v>162.0222795225637</v>
       </c>
       <c r="I4" t="n">
         <v>62.39765741247277</v>
       </c>
       <c r="J4" t="n">
-        <v>102.2230998038608</v>
+        <v>102.2230998038607</v>
       </c>
       <c r="K4" t="n">
-        <v>297.5053722589869</v>
+        <v>297.5053722589865</v>
       </c>
       <c r="L4" t="n">
-        <v>602.9258822712704</v>
+        <v>602.9258822712702</v>
       </c>
       <c r="M4" t="n">
-        <v>935.3381100583202</v>
+        <v>935.3381100583201</v>
       </c>
       <c r="N4" t="n">
         <v>1265.280934468308</v>
@@ -4510,28 +4510,28 @@
         <v>1848.902273001216</v>
       </c>
       <c r="R4" t="n">
-        <v>1755.634517809516</v>
+        <v>1848.902273001216</v>
       </c>
       <c r="S4" t="n">
-        <v>1562.616385320801</v>
+        <v>1655.884140512501</v>
       </c>
       <c r="T4" t="n">
-        <v>1340.523136239673</v>
+        <v>1433.790891431372</v>
       </c>
       <c r="U4" t="n">
-        <v>1051.416099574031</v>
+        <v>1214.897725161499</v>
       </c>
       <c r="V4" t="n">
-        <v>796.7316113681442</v>
+        <v>1214.897725161499</v>
       </c>
       <c r="W4" t="n">
-        <v>662.7235666930461</v>
+        <v>925.4805551245389</v>
       </c>
       <c r="X4" t="n">
-        <v>662.7235666930461</v>
+        <v>697.4910042265216</v>
       </c>
       <c r="Y4" t="n">
-        <v>662.7235666930461</v>
+        <v>476.6984250829914</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3289.325488940187</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3035.795012214023</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2704.732124870452</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2704.732124870452</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2331.266366609373</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1941.127034633561</v>
+        <v>1555.338782035317</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.1346335501037</v>
+        <v>890.9213886294034</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>721.9852057014965</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>571.8685662891608</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4756,19 +4756,19 @@
         <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.676735765777</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W7" t="n">
-        <v>1293.676735765777</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="X7" t="n">
-        <v>1065.68718486776</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="Y7" t="n">
-        <v>844.89460572423</v>
+        <v>1072.569853459643</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2071.975386180639</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>985.1133520179762</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>599.3250994197319</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>592.3795986705285</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.975386180639</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,19 +4884,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.5323442946291</v>
+        <v>629.780563451991</v>
       </c>
       <c r="C10" t="n">
-        <v>507.5323442946291</v>
+        <v>460.8443805240842</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1872.623104297452</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1583.520237423096</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1328.835749217209</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1039.418579180248</v>
       </c>
       <c r="X10" t="n">
-        <v>590.8070661251691</v>
+        <v>811.4290282822308</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.5323442946291</v>
+        <v>811.4290282822308</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5127,7 +5127,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
         <v>1896.176478190825</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>984.9192356072718</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>815.983052679365</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
         <v>631.7012443408905</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,7 +5215,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2203.383708318258</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072716</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5267,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.07903472198</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876686</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746417</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179083</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270444</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
         <v>2035.089393279802</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,28 +5771,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647285</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C22" t="n">
-        <v>631.5645865368216</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>631.5645865368216</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E22" t="n">
-        <v>631.5645865368216</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.6746390389113</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.4785397537912</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.7667085959893</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336516</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949682</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,13 +6002,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745237</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>636.6680198981027</v>
+        <v>1092.345997432835</v>
       </c>
       <c r="C25" t="n">
-        <v>467.7318369701958</v>
+        <v>923.4098145049277</v>
       </c>
       <c r="D25" t="n">
-        <v>317.6151975578601</v>
+        <v>773.2931750925919</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578601</v>
+        <v>625.3800815101988</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578601</v>
@@ -6142,7 +6142,7 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6151,46 +6151,46 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138413</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703112</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="26">
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797745</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319315</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6646,7 +6646,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6655,16 +6655,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6789,16 +6789,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,55 +6832,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6889,13 +6889,13 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
         <v>1280.338681582389</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7023,16 +7023,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7111,7 +7111,7 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,22 +7254,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,10 +7336,10 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,58 +7543,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,13 +7819,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>135.0615335795947</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>135.0615335795954</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>35.04176399800235</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.0904450475561</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.6565392873045</v>
       </c>
       <c r="U2" t="n">
-        <v>191.3113177096776</v>
+        <v>251.0086695104302</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22717,10 +22717,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1014899708501</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.4278941339733</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>92.33507763978301</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,19 +22759,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>69.51173169181084</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8550341082439</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>112.6104454096919</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>6.257951202384675</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>72.11969353038633</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>112.6104454096916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194208</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1352912260282721</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>145.6085800303786</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>121.5862749664509</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>6.257951202384902</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.4949402405076</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>4.085620730620576e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82889.17417537625</v>
+        <v>82889.17417537628</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26332,7 +26332,7 @@
         <v>100893.3249612508</v>
       </c>
       <c r="I2" t="n">
-        <v>100893.3249612508</v>
+        <v>100893.3249612507</v>
       </c>
       <c r="J2" t="n">
         <v>100893.3249612507</v>
@@ -26341,19 +26341,19 @@
         <v>102630.2212330354</v>
       </c>
       <c r="L2" t="n">
+        <v>102630.2212330355</v>
+      </c>
+      <c r="M2" t="n">
         <v>102630.2212330354</v>
-      </c>
-      <c r="M2" t="n">
-        <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
+        <v>102630.2212330354</v>
+      </c>
+      <c r="P2" t="n">
         <v>102630.2212330355</v>
-      </c>
-      <c r="P2" t="n">
-        <v>102630.2212330354</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26366,7 @@
         <v>1271067.297476341</v>
       </c>
       <c r="C3" t="n">
-        <v>54832.7728802377</v>
+        <v>54832.77288023767</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>204074.6584503629</v>
       </c>
       <c r="K3" t="n">
-        <v>32664.34410594292</v>
+        <v>32664.34410594289</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363176</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12912.919452493</v>
+        <v>12912.91945249298</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26433,31 +26433,31 @@
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="K4" t="n">
-        <v>18547.94754987468</v>
+        <v>18547.94754987464</v>
       </c>
       <c r="L4" t="n">
+        <v>18547.94754987464</v>
+      </c>
+      <c r="M4" t="n">
         <v>18547.94754987467</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>18547.94754987469</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>18547.94754987467</v>
       </c>
-      <c r="O4" t="n">
-        <v>18547.94754987466</v>
-      </c>
       <c r="P4" t="n">
-        <v>18547.94754987468</v>
+        <v>18547.94754987467</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1304983.071365501</v>
+        <v>-1305377.892306654</v>
       </c>
       <c r="C6" t="n">
-        <v>-149880.6152667281</v>
+        <v>-149880.615266728</v>
       </c>
       <c r="D6" t="n">
-        <v>-95047.84238649039</v>
+        <v>-95047.8423864904</v>
       </c>
       <c r="E6" t="n">
-        <v>-336198.7549567927</v>
+        <v>-336233.4928822284</v>
       </c>
       <c r="F6" t="n">
-        <v>-10786.29314943755</v>
+        <v>-10821.03107487323</v>
       </c>
       <c r="G6" t="n">
-        <v>-10786.29314943752</v>
+        <v>-10821.03107487324</v>
       </c>
       <c r="H6" t="n">
-        <v>-10786.2931494376</v>
+        <v>-10821.03107487322</v>
       </c>
       <c r="I6" t="n">
-        <v>-10786.29314943752</v>
+        <v>-10821.0310748733</v>
       </c>
       <c r="J6" t="n">
-        <v>-214860.9515998005</v>
+        <v>-214895.6895252362</v>
       </c>
       <c r="K6" t="n">
-        <v>-51746.18627669758</v>
+        <v>-51746.18627669751</v>
       </c>
       <c r="L6" t="n">
-        <v>-19081.84217075462</v>
+        <v>-19081.84217075455</v>
       </c>
       <c r="M6" t="n">
         <v>-104136.8701062664</v>
       </c>
       <c r="N6" t="n">
+        <v>-19081.84217075467</v>
+      </c>
+      <c r="O6" t="n">
         <v>-19081.84217075462</v>
       </c>
-      <c r="O6" t="n">
-        <v>-19081.84217075461</v>
-      </c>
       <c r="P6" t="n">
-        <v>-38509.56016438648</v>
+        <v>-38509.56016438636</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="O2" t="n">
-        <v>24.28464749203969</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26790,7 +26790,7 @@
         <v>779.9707176559097</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -27012,7 +27012,7 @@
         <v>779.9707176559097</v>
       </c>
       <c r="C4" t="n">
-        <v>51.43073774638322</v>
+        <v>51.4307377463831</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.97071765591</v>
+        <v>779.9707176559099</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638322</v>
+        <v>51.4307377463831</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,7 +27258,7 @@
         <v>779.9707176559097</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638322</v>
+        <v>51.4307377463831</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>168.0004407973254</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>244.4988012306531</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.72960772955221</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>32.65956063525175</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>270.4601319683923</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>226.4976123977383</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>165.4242199230391</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>136.1426787398602</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31847,10 +31847,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>301.6445156724557</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32251,7 +32251,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q17" t="n">
         <v>593.8732233669223</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,22 +32321,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>724.9681211658385</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,19 +32549,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>167.4835451665585</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>641.2555750770852</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>556.7959610899857</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>86.09470136139413</v>
       </c>
       <c r="K3" t="n">
-        <v>226.0938249878115</v>
+        <v>361.1553585674062</v>
       </c>
       <c r="L3" t="n">
         <v>350.801495018378</v>
@@ -34793,7 +34793,7 @@
         <v>393.6341997567632</v>
       </c>
       <c r="P3" t="n">
-        <v>431.4593325477782</v>
+        <v>296.3977989681827</v>
       </c>
       <c r="Q3" t="n">
         <v>147.7106485001482</v>
@@ -35495,10 +35495,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>159.0482712280113</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35899,7 +35899,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,22 +35969,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>582.8340872438201</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>25.34951124454015</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>509.9138629937518</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>425.4542490066523</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317795</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,16 +38099,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
